--- a/测试单-电子书_daisy_170208.xlsx
+++ b/测试单-电子书_daisy_170208.xlsx
@@ -1603,10 +1603,6 @@
   </si>
   <si>
     <t>断点记忆造成的。断点记忆应该基于手动选择朗读章节模式，并且需要判断章节序号。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在程序设计的时候不知道还有这种没有音频的情况，所以程序设计时都是按照播放音频去设计的，现在要改成音频播放和TTS播放融合在一起，这个很难。2月6日按照建议处理方案修改了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2047,6 +2043,10 @@
   </si>
   <si>
     <t>复检已改daisy记录。新增编号97~99。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在程序设计的时候不知道还有这种没有音频的情况，所以程序设计时都是按照播放音频去设计的，现在要改成音频播放和TTS播放融合在一起，这个很难。2月11日按照建议处理方案修改了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3186,17 +3186,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3810,7 +3800,7 @@
         <v>42774</v>
       </c>
       <c r="F16" s="156" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>305</v>
@@ -3932,10 +3922,10 @@
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F105" sqref="F105"/>
+      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4577,13 +4567,13 @@
         <v>132</v>
       </c>
       <c r="G16" s="118" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H16" s="106" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K16" s="114"/>
       <c r="L16" s="103" t="s">
@@ -4591,10 +4581,10 @@
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="96" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="O16" s="104">
-        <v>42772</v>
+        <v>42777</v>
       </c>
       <c r="P16" s="95" t="s">
         <v>63</v>
@@ -6231,10 +6221,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="103" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="103" t="s">
         <v>315</v>
-      </c>
-      <c r="C57" s="103" t="s">
-        <v>316</v>
       </c>
       <c r="D57" s="104">
         <v>42669</v>
@@ -6243,16 +6233,16 @@
         <v>42669</v>
       </c>
       <c r="F57" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="H57" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="G57" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="H57" s="106" t="s">
-        <v>318</v>
-      </c>
       <c r="I57" s="106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K57" s="114">
         <v>42774</v>
@@ -6262,7 +6252,7 @@
       </c>
       <c r="M57" s="106"/>
       <c r="N57" s="106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O57" s="104">
         <v>42772</v>
@@ -7464,13 +7454,13 @@
         <v>106</v>
       </c>
       <c r="G86" s="63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H86" s="64" t="s">
         <v>36</v>
       </c>
       <c r="I86" s="106" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K86" s="114"/>
       <c r="L86" s="103" t="s">
@@ -7716,13 +7706,13 @@
         <v>134</v>
       </c>
       <c r="G92" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H92" s="106" t="s">
         <v>36</v>
       </c>
       <c r="I92" s="96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L92" s="103" t="s">
         <v>47</v>
@@ -7758,13 +7748,13 @@
         <v>134</v>
       </c>
       <c r="G93" s="63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H93" s="106" t="s">
         <v>36</v>
       </c>
       <c r="I93" s="96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L93" s="103" t="s">
         <v>47</v>
@@ -7800,13 +7790,13 @@
         <v>134</v>
       </c>
       <c r="G94" s="63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H94" s="106" t="s">
         <v>36</v>
       </c>
       <c r="I94" s="96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L94" s="103" t="s">
         <v>47</v>
@@ -7842,13 +7832,13 @@
         <v>126</v>
       </c>
       <c r="G95" s="63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H95" s="106" t="s">
         <v>36</v>
       </c>
       <c r="I95" s="96" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K95" s="114">
         <v>42774</v>
@@ -7883,7 +7873,7 @@
         <v>138</v>
       </c>
       <c r="G96" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I96" s="106" t="s">
         <v>151</v>
@@ -7894,7 +7884,7 @@
       </c>
       <c r="M96" s="95"/>
       <c r="N96" s="96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O96" s="104">
         <v>42772</v>
@@ -7923,7 +7913,7 @@
         <v>140</v>
       </c>
       <c r="G97" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I97" s="48"/>
       <c r="K97" s="114"/>
@@ -7991,10 +7981,10 @@
         <v>42774</v>
       </c>
       <c r="F99" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G99" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="94.5">
@@ -8014,10 +8004,10 @@
         <v>42774</v>
       </c>
       <c r="F100" s="113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G100" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="81">
@@ -8037,10 +8027,10 @@
         <v>42774</v>
       </c>
       <c r="F101" s="96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G101" s="49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -8059,12 +8049,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I73 I75:I1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8188,12 +8178,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L2">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
